--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/MINNESOTA_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/MINNESOTA_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D987"/>
+  <dimension ref="A1:D981"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -483,7 +483,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C9">
@@ -623,7 +623,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C19">
@@ -636,7 +636,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C20">
@@ -688,7 +688,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C24">
@@ -916,7 +916,7 @@
         <v>5</v>
       </c>
       <c r="D41">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="42">
@@ -935,7 +935,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C43">
@@ -1311,7 +1311,7 @@
         <v>5</v>
       </c>
       <c r="D71">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="72">
@@ -1330,7 +1330,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C73">
@@ -1343,14 +1343,14 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C74">
         <v>5</v>
       </c>
       <c r="D74">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="75">
@@ -1717,7 +1717,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1774,7 +1774,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C106">
@@ -1955,13 +1955,13 @@
         <v>5</v>
       </c>
       <c r="D119">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C120">
@@ -2046,7 +2046,7 @@
         <v>5</v>
       </c>
       <c r="D126">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="127">
@@ -2078,7 +2078,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C129">
@@ -2104,7 +2104,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C131">
@@ -2189,7 +2189,7 @@
         <v>5</v>
       </c>
       <c r="D137">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="138">
@@ -2234,12 +2234,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C141">
@@ -2278,7 +2278,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C144">
@@ -2291,7 +2291,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C145">
@@ -2311,7 +2311,7 @@
         <v>5</v>
       </c>
       <c r="D146">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="147">
@@ -2343,7 +2343,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C149">
@@ -2382,7 +2382,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C152">
@@ -2434,7 +2434,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C156">
@@ -2480,7 +2480,7 @@
         <v>5</v>
       </c>
       <c r="D159">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="160">
@@ -2499,7 +2499,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C161">
@@ -2564,7 +2564,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C166">
@@ -2642,7 +2642,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C172">
@@ -2720,7 +2720,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C178">
@@ -2733,7 +2733,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C179">
@@ -2753,7 +2753,7 @@
         <v>5</v>
       </c>
       <c r="D180">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="181">
@@ -2902,7 +2902,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C192">
@@ -2967,7 +2967,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C197">
@@ -2980,7 +2980,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C198">
@@ -2993,7 +2993,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C199">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C210">
@@ -3154,7 +3154,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C211">
@@ -3245,7 +3245,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C218">
@@ -3284,7 +3284,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C221">
@@ -3414,7 +3414,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C231">
@@ -3440,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C233">
@@ -3453,7 +3453,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C234">
@@ -3466,7 +3466,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C235">
@@ -3518,7 +3518,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C239">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C244">
@@ -3627,20 +3627,20 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C247">
         <v>5</v>
       </c>
       <c r="D247">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C248">
@@ -3692,7 +3692,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C252">
@@ -3705,20 +3705,20 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C253">
         <v>5</v>
       </c>
       <c r="D253">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C254">
@@ -3757,7 +3757,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C257">
@@ -3770,7 +3770,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C258">
@@ -3783,7 +3783,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C259">
@@ -3796,7 +3796,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C260">
@@ -3816,7 +3816,7 @@
         <v>5</v>
       </c>
       <c r="D261">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="262">
@@ -3861,7 +3861,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C265">
@@ -3874,7 +3874,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C266">
@@ -3926,7 +3926,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C270">
@@ -3939,7 +3939,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C271">
@@ -3998,7 +3998,7 @@
         <v>5</v>
       </c>
       <c r="D275">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="276">
@@ -4017,7 +4017,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C277">
@@ -4030,7 +4030,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C278">
@@ -4056,20 +4056,20 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C280">
         <v>5</v>
       </c>
       <c r="D280">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C281">
@@ -4095,7 +4095,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C283">
@@ -4277,7 +4277,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C297">
@@ -4303,7 +4303,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C299">
@@ -4329,7 +4329,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C301">
@@ -4381,7 +4381,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C305">
@@ -4394,14 +4394,14 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C306">
         <v>5</v>
       </c>
       <c r="D306">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="307">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C315">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C316">
@@ -4568,7 +4568,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C319">
@@ -4614,7 +4614,7 @@
         <v>5</v>
       </c>
       <c r="D322">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="323">
@@ -4646,7 +4646,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C325">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C331">
@@ -4750,7 +4750,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C333">
@@ -4841,7 +4841,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C340">
@@ -4867,7 +4867,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C342">
@@ -4887,7 +4887,7 @@
         <v>5</v>
       </c>
       <c r="D343">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="344">
@@ -4919,7 +4919,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C346">
@@ -4932,7 +4932,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C347">
@@ -4945,7 +4945,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C348">
@@ -4984,7 +4984,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C351">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C358">
@@ -5158,7 +5158,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C364">
@@ -5210,7 +5210,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C368">
@@ -5288,7 +5288,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C374">
@@ -5327,7 +5327,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C377">
@@ -5373,7 +5373,7 @@
         <v>5</v>
       </c>
       <c r="D380">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="381">
@@ -5386,7 +5386,7 @@
         <v>5</v>
       </c>
       <c r="D381">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="382">
@@ -5399,13 +5399,13 @@
         <v>5</v>
       </c>
       <c r="D382">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C383">
@@ -5431,7 +5431,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C385">
@@ -5457,7 +5457,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C387">
@@ -5470,7 +5470,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C388">
@@ -5509,7 +5509,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C391">
@@ -5535,7 +5535,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C393">
@@ -5548,7 +5548,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C394">
@@ -5639,7 +5639,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C401">
@@ -5665,7 +5665,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C403">
@@ -5678,7 +5678,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C404">
@@ -6028,7 +6028,7 @@
         <v>5</v>
       </c>
       <c r="D430">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="431">
@@ -6268,7 +6268,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C449">
@@ -6314,7 +6314,7 @@
         <v>5</v>
       </c>
       <c r="D452">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="453">
@@ -6340,7 +6340,7 @@
         <v>5</v>
       </c>
       <c r="D454">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="455">
@@ -6418,7 +6418,7 @@
         <v>5</v>
       </c>
       <c r="D460">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="461">
@@ -6618,13 +6618,13 @@
         <v>5</v>
       </c>
       <c r="D475">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C476">
@@ -6689,7 +6689,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C481">
@@ -6702,7 +6702,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C482">
@@ -6806,7 +6806,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C490">
@@ -7141,7 +7141,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C515">
@@ -7167,7 +7167,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C517">
@@ -7200,7 +7200,7 @@
         <v>50</v>
       </c>
       <c r="D519">
-        <v>0.009218289085545723</v>
+        <v>0.009218289085545724</v>
       </c>
     </row>
     <row r="520">
@@ -7237,7 +7237,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C522">
@@ -7276,7 +7276,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C525">
@@ -7289,7 +7289,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C526">
@@ -7302,7 +7302,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C527">
@@ -7315,7 +7315,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C528">
@@ -7328,7 +7328,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C529">
@@ -7393,7 +7393,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C534">
@@ -7432,7 +7432,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C537">
@@ -7458,7 +7458,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C539">
@@ -7471,7 +7471,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C540">
@@ -7484,7 +7484,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C541">
@@ -7497,7 +7497,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C542">
@@ -7588,7 +7588,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C549">
@@ -7608,7 +7608,7 @@
         <v>5</v>
       </c>
       <c r="D550">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="551">
@@ -7679,7 +7679,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C556">
@@ -7783,7 +7783,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C564">
@@ -7965,7 +7965,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C578">
@@ -8069,7 +8069,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C586">
@@ -8303,7 +8303,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C604">
@@ -8440,7 +8440,7 @@
         <v>5</v>
       </c>
       <c r="D614">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="615">
@@ -8615,7 +8615,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C628">
@@ -8687,7 +8687,7 @@
         <v>5</v>
       </c>
       <c r="D633">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="634">
@@ -8719,7 +8719,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C636">
@@ -8732,7 +8732,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C637">
@@ -8745,7 +8745,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C638">
@@ -8771,7 +8771,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C640">
@@ -8784,7 +8784,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C641">
@@ -8797,7 +8797,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C642">
@@ -8810,7 +8810,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Yutanduchi de Guerrero</t>
+          <t>Yutanduchi De Guerrero</t>
         </is>
       </c>
       <c r="C643">
@@ -8823,7 +8823,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C644">
@@ -8836,7 +8836,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C645">
@@ -9049,7 +9049,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C661">
@@ -9121,7 +9121,7 @@
         <v>5</v>
       </c>
       <c r="D666">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="667">
@@ -9140,7 +9140,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C668">
@@ -9173,7 +9173,7 @@
         <v>5</v>
       </c>
       <c r="D670">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="671">
@@ -9231,7 +9231,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C675">
@@ -9244,7 +9244,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C676">
@@ -9270,7 +9270,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C678">
@@ -9283,7 +9283,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C679">
@@ -9309,7 +9309,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C681">
@@ -9439,7 +9439,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C691">
@@ -9530,7 +9530,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C698">
@@ -9556,7 +9556,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C700">
@@ -9569,7 +9569,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C701">
@@ -9595,14 +9595,14 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C703">
         <v>5</v>
       </c>
       <c r="D703">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="704">
@@ -9673,7 +9673,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C709">
@@ -9686,7 +9686,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C710">
@@ -9725,7 +9725,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C713">
@@ -9777,7 +9777,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C717">
@@ -9797,7 +9797,7 @@
         <v>5</v>
       </c>
       <c r="D718">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="719">
@@ -9933,7 +9933,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C729">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C740">
@@ -10094,7 +10094,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C741">
@@ -10159,7 +10159,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C746">
@@ -10172,7 +10172,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C747">
@@ -10185,7 +10185,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C748">
@@ -10224,7 +10224,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C751">
@@ -10377,7 +10377,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C762">
@@ -10397,7 +10397,7 @@
         <v>5</v>
       </c>
       <c r="D763">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="764">
@@ -10436,13 +10436,13 @@
         <v>5</v>
       </c>
       <c r="D766">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C767">
@@ -10507,7 +10507,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C772">
@@ -10585,7 +10585,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C778">
@@ -10598,20 +10598,20 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C779">
         <v>5</v>
       </c>
       <c r="D779">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C780">
@@ -10792,7 +10792,7 @@
         <v>50</v>
       </c>
       <c r="D793">
-        <v>0.009218289085545723</v>
+        <v>0.009218289085545724</v>
       </c>
     </row>
     <row r="794">
@@ -10836,7 +10836,7 @@
         <v>5</v>
       </c>
       <c r="D796">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="797">
@@ -11281,7 +11281,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C830">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C836">
@@ -11429,7 +11429,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C841">
@@ -11442,7 +11442,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C842">
@@ -11455,7 +11455,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C843">
@@ -11616,7 +11616,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C855">
@@ -11675,7 +11675,7 @@
         <v>5</v>
       </c>
       <c r="D859">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="860">
@@ -11857,7 +11857,7 @@
         <v>5</v>
       </c>
       <c r="D873">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="874">
@@ -11902,7 +11902,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C877">
@@ -12019,7 +12019,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C886">
@@ -12032,7 +12032,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C887">
@@ -12071,7 +12071,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C890">
@@ -12084,7 +12084,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C891">
@@ -12214,7 +12214,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C901">
@@ -12227,7 +12227,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C902">
@@ -12266,7 +12266,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C905">
@@ -12312,7 +12312,7 @@
         <v>5</v>
       </c>
       <c r="D908">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="909">
@@ -12383,7 +12383,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C914">
@@ -12396,7 +12396,7 @@
     <row r="915">
       <c r="B915" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C915">
@@ -12435,14 +12435,14 @@
     <row r="918">
       <c r="B918" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C918">
         <v>5</v>
       </c>
       <c r="D918">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="919">
@@ -12500,7 +12500,7 @@
     <row r="923">
       <c r="B923" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C923">
@@ -12876,7 +12876,7 @@
         <v>5</v>
       </c>
       <c r="D951">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="952">
@@ -12913,7 +12913,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C954">
@@ -13147,7 +13147,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C972">
@@ -13160,7 +13160,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C973">
@@ -13186,7 +13186,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C975">
@@ -13245,7 +13245,7 @@
         <v>5</v>
       </c>
       <c r="D979">
-        <v>0.0009218289085545723</v>
+        <v>0.0009218289085545724</v>
       </c>
     </row>
     <row r="980">
@@ -13272,41 +13272,6 @@
       </c>
       <c r="D981">
         <v>1</v>
-      </c>
-    </row>
-    <row r="983">
-      <c r="A983" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 566,547</t>
-        </is>
-      </c>
-    </row>
-    <row r="984">
-      <c r="A984" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="985">
-      <c r="A985" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="986">
-      <c r="A986" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="987">
-      <c r="A987" t="inlineStr">
-        <is>
-          <t>Mayo de 2023</t>
-        </is>
       </c>
     </row>
   </sheetData>
